--- a/data/egret_DMB.xlsx
+++ b/data/egret_DMB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF1454D-C6D2-BD4A-BA13-24F9076DB8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8D7379-DB25-C344-B38F-6B0ED5BB91FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1720" windowWidth="27680" windowHeight="16940" xr2:uid="{4C2C8B56-9CA1-674D-B364-09C2D48138CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="85">
   <si>
     <t>datasetID</t>
   </si>
@@ -213,34 +213,13 @@
     <t>N</t>
   </si>
   <si>
-    <t>veiga-barbosa15</t>
-  </si>
-  <si>
     <t>exp2</t>
-  </si>
-  <si>
-    <t>veiga-barbosa16</t>
   </si>
   <si>
     <t>exp3</t>
   </si>
   <si>
-    <t>veiga-barbosa17</t>
-  </si>
-  <si>
     <t>exp4</t>
-  </si>
-  <si>
-    <t>veiga-barbosa18</t>
-  </si>
-  <si>
-    <t>veiga-barbosa19</t>
-  </si>
-  <si>
-    <t>veiga-barbosa20</t>
-  </si>
-  <si>
-    <t>veiga-barbosa21</t>
   </si>
   <si>
     <t>Tab. 1</t>
@@ -705,12 +684,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD7B06D-E58B-C54D-B032-3524949DAD93}">
   <dimension ref="A1:AS264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="22" max="22" width="11.1640625" style="1"/>
     <col min="25" max="34" width="11.1640625" customWidth="1"/>
     <col min="35" max="35" width="16.5" customWidth="1"/>
@@ -897,7 +877,7 @@
         <v>55</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>49</v>
@@ -933,16 +913,16 @@
         <v>58</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK2" s="7">
         <v>34</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM2" s="7">
         <v>1.39</v>
@@ -957,15 +937,15 @@
         <v>15</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>52</v>
@@ -1007,7 +987,7 @@
         <v>55</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>49</v>
@@ -1043,16 +1023,16 @@
         <v>58</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK3" s="7">
         <v>42</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM3" s="7">
         <v>3.89</v>
@@ -1067,15 +1047,15 @@
         <v>15</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>52</v>
@@ -1117,7 +1097,7 @@
         <v>55</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>49</v>
@@ -1153,16 +1133,16 @@
         <v>58</v>
       </c>
       <c r="AI4" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK4" s="7">
         <v>50</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM4" s="7">
         <v>4.7</v>
@@ -1177,15 +1157,15 @@
         <v>15</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>52</v>
@@ -1227,7 +1207,7 @@
         <v>55</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>49</v>
@@ -1263,16 +1243,16 @@
         <v>58</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK5" s="9">
         <v>68</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM5" s="9">
         <v>3.05</v>
@@ -1287,15 +1267,15 @@
         <v>15</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR5" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>52</v>
@@ -1337,7 +1317,7 @@
         <v>55</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>49</v>
@@ -1373,16 +1353,16 @@
         <v>58</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ6" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK6" s="9">
         <v>89</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM6" s="9">
         <v>2.97</v>
@@ -1397,15 +1377,15 @@
         <v>15</v>
       </c>
       <c r="AQ6" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>52</v>
@@ -1447,7 +1427,7 @@
         <v>55</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>49</v>
@@ -1483,16 +1463,16 @@
         <v>58</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ7" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK7" s="9">
         <v>72</v>
       </c>
       <c r="AL7" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM7" s="9">
         <v>2.08</v>
@@ -1507,15 +1487,15 @@
         <v>15</v>
       </c>
       <c r="AQ7" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR7" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>52</v>
@@ -1557,7 +1537,7 @@
         <v>55</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>49</v>
@@ -1593,16 +1573,16 @@
         <v>58</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK8" s="9">
         <v>63</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM8" s="9">
         <v>5.9</v>
@@ -1617,15 +1597,15 @@
         <v>30</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>52</v>
@@ -1667,7 +1647,7 @@
         <v>55</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>49</v>
@@ -1703,16 +1683,16 @@
         <v>58</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK9" s="7">
         <v>86</v>
       </c>
       <c r="AL9" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM9" s="7">
         <v>4.42</v>
@@ -1727,10 +1707,10 @@
         <v>15</v>
       </c>
       <c r="AQ9" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR9" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1777,7 +1757,7 @@
         <v>55</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>49</v>
@@ -1798,10 +1778,10 @@
         <v>49</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF10" s="7" t="s">
         <v>58</v>
@@ -1813,16 +1793,16 @@
         <v>58</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK10" s="9">
         <v>9</v>
       </c>
       <c r="AL10" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM10" s="9">
         <v>1.52</v>
@@ -1837,15 +1817,15 @@
         <v>30</v>
       </c>
       <c r="AQ10" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>52</v>
@@ -1887,7 +1867,7 @@
         <v>55</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>49</v>
@@ -1908,10 +1888,10 @@
         <v>49</v>
       </c>
       <c r="AD11" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF11" s="7" t="s">
         <v>58</v>
@@ -1923,16 +1903,16 @@
         <v>58</v>
       </c>
       <c r="AI11" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ11" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK11" s="9">
         <v>15</v>
       </c>
       <c r="AL11" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM11" s="9">
         <v>1.82</v>
@@ -1947,15 +1927,15 @@
         <v>30</v>
       </c>
       <c r="AQ11" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR11" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>52</v>
@@ -1997,7 +1977,7 @@
         <v>55</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>49</v>
@@ -2018,10 +1998,10 @@
         <v>49</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF12" s="7" t="s">
         <v>58</v>
@@ -2033,16 +2013,16 @@
         <v>58</v>
       </c>
       <c r="AI12" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ12" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK12" s="9">
         <v>24</v>
       </c>
       <c r="AL12" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM12" s="9">
         <v>2.9</v>
@@ -2057,15 +2037,15 @@
         <v>15</v>
       </c>
       <c r="AQ12" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR12" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>52</v>
@@ -2107,7 +2087,7 @@
         <v>55</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>49</v>
@@ -2128,10 +2108,10 @@
         <v>49</v>
       </c>
       <c r="AD13" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF13" s="7" t="s">
         <v>58</v>
@@ -2143,16 +2123,16 @@
         <v>58</v>
       </c>
       <c r="AI13" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK13" s="9">
         <v>29</v>
       </c>
       <c r="AL13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM13" s="9">
         <v>3.25</v>
@@ -2167,15 +2147,15 @@
         <v>15</v>
       </c>
       <c r="AQ13" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR13" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>52</v>
@@ -2217,7 +2197,7 @@
         <v>55</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V14" s="8" t="s">
         <v>49</v>
@@ -2238,10 +2218,10 @@
         <v>49</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF14" s="7" t="s">
         <v>58</v>
@@ -2253,16 +2233,16 @@
         <v>58</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ14" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK14" s="9">
         <v>62</v>
       </c>
       <c r="AL14" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM14" s="9">
         <v>2.56</v>
@@ -2277,15 +2257,15 @@
         <v>15</v>
       </c>
       <c r="AQ14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR14" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>52</v>
@@ -2327,7 +2307,7 @@
         <v>55</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>49</v>
@@ -2348,10 +2328,10 @@
         <v>49</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE15" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF15" s="7" t="s">
         <v>58</v>
@@ -2363,16 +2343,16 @@
         <v>58</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ15" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK15" s="9">
         <v>49</v>
       </c>
       <c r="AL15" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM15" s="9">
         <v>3.26</v>
@@ -2387,15 +2367,15 @@
         <v>15</v>
       </c>
       <c r="AQ15" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR15" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>52</v>
@@ -2437,7 +2417,7 @@
         <v>55</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V16" s="8" t="s">
         <v>49</v>
@@ -2458,10 +2438,10 @@
         <v>49</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF16" s="7" t="s">
         <v>58</v>
@@ -2473,16 +2453,16 @@
         <v>58</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ16" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK16" s="9">
         <v>21</v>
       </c>
       <c r="AL16" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM16" s="9">
         <v>4.62</v>
@@ -2497,15 +2477,15 @@
         <v>30</v>
       </c>
       <c r="AQ16" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR16" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>52</v>
@@ -2547,7 +2527,7 @@
         <v>55</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V17" s="8" t="s">
         <v>49</v>
@@ -2568,10 +2548,10 @@
         <v>49</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF17" s="7" t="s">
         <v>58</v>
@@ -2583,16 +2563,16 @@
         <v>58</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK17" s="7">
         <v>57</v>
       </c>
       <c r="AL17" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM17" s="7">
         <v>3.29</v>
@@ -2607,10 +2587,10 @@
         <v>15</v>
       </c>
       <c r="AQ17" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR17" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2657,7 +2637,7 @@
         <v>55</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V18" s="8" t="s">
         <v>49</v>
@@ -2693,16 +2673,16 @@
         <v>58</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ18" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK18" s="9">
         <v>16.850000000000001</v>
       </c>
       <c r="AL18" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM18" s="9">
         <v>0.41</v>
@@ -2717,15 +2697,15 @@
         <v>30</v>
       </c>
       <c r="AQ18" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR18" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>52</v>
@@ -2767,7 +2747,7 @@
         <v>55</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V19" s="8" t="s">
         <v>49</v>
@@ -2803,16 +2783,16 @@
         <v>58</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK19" s="9">
         <v>10.119999999999999</v>
       </c>
       <c r="AL19" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM19" s="9">
         <v>0.88</v>
@@ -2827,15 +2807,15 @@
         <v>30</v>
       </c>
       <c r="AQ19" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR19" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>52</v>
@@ -2877,7 +2857,7 @@
         <v>55</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V20" s="8" t="s">
         <v>49</v>
@@ -2913,16 +2893,16 @@
         <v>58</v>
       </c>
       <c r="AI20" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ20" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK20" s="9">
         <v>5.55</v>
       </c>
       <c r="AL20" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM20" s="9">
         <v>0.17</v>
@@ -2937,15 +2917,15 @@
         <v>15</v>
       </c>
       <c r="AQ20" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR20" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>52</v>
@@ -2987,7 +2967,7 @@
         <v>55</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V21" s="8" t="s">
         <v>49</v>
@@ -3023,16 +3003,16 @@
         <v>58</v>
       </c>
       <c r="AI21" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ21" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK21" s="9">
         <v>2.95</v>
       </c>
       <c r="AL21" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM21" s="9">
         <v>0.31</v>
@@ -3047,15 +3027,15 @@
         <v>15</v>
       </c>
       <c r="AQ21" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR21" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>52</v>
@@ -3097,7 +3077,7 @@
         <v>55</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V22" s="8" t="s">
         <v>49</v>
@@ -3133,16 +3113,16 @@
         <v>58</v>
       </c>
       <c r="AI22" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ22" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK22" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="AL22" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM22" s="9">
         <v>0.36</v>
@@ -3157,15 +3137,15 @@
         <v>15</v>
       </c>
       <c r="AQ22" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR22" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>52</v>
@@ -3207,7 +3187,7 @@
         <v>55</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V23" s="8" t="s">
         <v>49</v>
@@ -3243,16 +3223,16 @@
         <v>58</v>
       </c>
       <c r="AI23" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ23" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK23" s="9">
         <v>2.92</v>
       </c>
       <c r="AL23" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM23" s="9">
         <v>0.24</v>
@@ -3267,15 +3247,15 @@
         <v>15</v>
       </c>
       <c r="AQ23" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR23" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>52</v>
@@ -3317,7 +3297,7 @@
         <v>55</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V24" s="8" t="s">
         <v>49</v>
@@ -3353,16 +3333,16 @@
         <v>58</v>
       </c>
       <c r="AI24" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ24" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK24" s="9">
         <v>3.9</v>
       </c>
       <c r="AL24" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM24" s="9">
         <v>0.39</v>
@@ -3377,15 +3357,15 @@
         <v>30</v>
       </c>
       <c r="AQ24" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR24" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>52</v>
@@ -3427,7 +3407,7 @@
         <v>55</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V25" s="8" t="s">
         <v>49</v>
@@ -3463,16 +3443,16 @@
         <v>58</v>
       </c>
       <c r="AI25" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ25" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK25" s="7">
         <v>2.7</v>
       </c>
       <c r="AL25" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM25" s="9">
         <v>0.15</v>
@@ -3487,10 +3467,10 @@
         <v>15</v>
       </c>
       <c r="AQ25" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR25" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3537,7 +3517,7 @@
         <v>55</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V26" s="8" t="s">
         <v>49</v>
@@ -3558,10 +3538,10 @@
         <v>49</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE26" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF26" s="7" t="s">
         <v>58</v>
@@ -3573,16 +3553,16 @@
         <v>58</v>
       </c>
       <c r="AI26" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ26" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK26" s="9">
         <v>19.82</v>
       </c>
       <c r="AL26" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM26" s="9">
         <v>0.28000000000000003</v>
@@ -3597,15 +3577,15 @@
         <v>30</v>
       </c>
       <c r="AQ26" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR26" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>52</v>
@@ -3647,7 +3627,7 @@
         <v>55</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V27" s="8" t="s">
         <v>49</v>
@@ -3668,10 +3648,10 @@
         <v>49</v>
       </c>
       <c r="AD27" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE27" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF27" s="7" t="s">
         <v>58</v>
@@ -3683,16 +3663,16 @@
         <v>58</v>
       </c>
       <c r="AI27" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ27" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK27" s="9">
         <v>10.45</v>
       </c>
       <c r="AL27" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM27" s="9">
         <v>1.4</v>
@@ -3707,15 +3687,15 @@
         <v>30</v>
       </c>
       <c r="AQ27" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR27" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>52</v>
@@ -3757,7 +3737,7 @@
         <v>55</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V28" s="8" t="s">
         <v>49</v>
@@ -3778,10 +3758,10 @@
         <v>49</v>
       </c>
       <c r="AD28" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE28" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF28" s="7" t="s">
         <v>58</v>
@@ -3793,16 +3773,16 @@
         <v>58</v>
       </c>
       <c r="AI28" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ28" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK28" s="9">
         <v>6.37</v>
       </c>
       <c r="AL28" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM28" s="9">
         <v>0.47</v>
@@ -3817,15 +3797,15 @@
         <v>15</v>
       </c>
       <c r="AQ28" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR28" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>52</v>
@@ -3867,7 +3847,7 @@
         <v>55</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V29" s="8" t="s">
         <v>49</v>
@@ -3888,10 +3868,10 @@
         <v>49</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF29" s="7" t="s">
         <v>58</v>
@@ -3903,16 +3883,16 @@
         <v>58</v>
       </c>
       <c r="AI29" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ29" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK29" s="9">
         <v>3.3</v>
       </c>
       <c r="AL29" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM29" s="9">
         <v>0.38</v>
@@ -3927,15 +3907,15 @@
         <v>15</v>
       </c>
       <c r="AQ29" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR29" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>52</v>
@@ -3977,7 +3957,7 @@
         <v>55</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V30" s="8" t="s">
         <v>49</v>
@@ -3998,10 +3978,10 @@
         <v>49</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF30" s="7" t="s">
         <v>58</v>
@@ -4013,16 +3993,16 @@
         <v>58</v>
       </c>
       <c r="AI30" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ30" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK30" s="9">
         <v>3.1</v>
       </c>
       <c r="AL30" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM30" s="9">
         <v>0.28000000000000003</v>
@@ -4037,15 +4017,15 @@
         <v>15</v>
       </c>
       <c r="AQ30" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR30" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>52</v>
@@ -4087,7 +4067,7 @@
         <v>55</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V31" s="8" t="s">
         <v>49</v>
@@ -4108,10 +4088,10 @@
         <v>49</v>
       </c>
       <c r="AD31" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE31" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF31" s="7" t="s">
         <v>58</v>
@@ -4123,16 +4103,16 @@
         <v>58</v>
       </c>
       <c r="AI31" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ31" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK31" s="9">
         <v>3.17</v>
       </c>
       <c r="AL31" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM31" s="9">
         <v>0.33</v>
@@ -4147,15 +4127,15 @@
         <v>15</v>
       </c>
       <c r="AQ31" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR31" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>52</v>
@@ -4197,7 +4177,7 @@
         <v>55</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V32" s="8" t="s">
         <v>49</v>
@@ -4218,10 +4198,10 @@
         <v>49</v>
       </c>
       <c r="AD32" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE32" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF32" s="7" t="s">
         <v>58</v>
@@ -4233,16 +4213,16 @@
         <v>58</v>
       </c>
       <c r="AI32" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ32" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK32" s="9">
         <v>4.5</v>
       </c>
       <c r="AL32" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM32" s="9">
         <v>0.62</v>
@@ -4257,15 +4237,15 @@
         <v>30</v>
       </c>
       <c r="AQ32" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR32" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>52</v>
@@ -4307,7 +4287,7 @@
         <v>55</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V33" s="8" t="s">
         <v>49</v>
@@ -4328,10 +4308,10 @@
         <v>49</v>
       </c>
       <c r="AD33" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AF33" s="7" t="s">
         <v>58</v>
@@ -4343,16 +4323,16 @@
         <v>58</v>
       </c>
       <c r="AI33" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ33" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK33" s="7">
         <v>3.2</v>
       </c>
       <c r="AL33" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM33" s="7">
         <v>0.65</v>
@@ -4367,18 +4347,18 @@
         <v>15</v>
       </c>
       <c r="AQ33" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR33" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>46</v>
@@ -4417,7 +4397,7 @@
         <v>55</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V34" s="8" t="s">
         <v>49</v>
@@ -4429,7 +4409,7 @@
         <v>25</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z34" s="7">
         <v>16</v>
@@ -4453,16 +4433,16 @@
         <v>58</v>
       </c>
       <c r="AI34" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ34" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK34" s="9">
         <v>89</v>
       </c>
       <c r="AL34" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM34" s="9">
         <v>2.97</v>
@@ -4477,18 +4457,18 @@
         <v>15</v>
       </c>
       <c r="AQ34" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR34" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>46</v>
@@ -4527,7 +4507,7 @@
         <v>55</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V35" s="8" t="s">
         <v>49</v>
@@ -4539,7 +4519,7 @@
         <v>25</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z35" s="7">
         <v>16</v>
@@ -4563,16 +4543,16 @@
         <v>58</v>
       </c>
       <c r="AI35" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ35" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK35" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="AL35" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM35" s="9">
         <v>0.36</v>
@@ -4587,18 +4567,18 @@
         <v>15</v>
       </c>
       <c r="AQ35" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR35" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>46</v>
@@ -4637,7 +4617,7 @@
         <v>55</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V36" s="8" t="s">
         <v>49</v>
@@ -4649,7 +4629,7 @@
         <v>57</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z36" s="7">
         <v>16</v>
@@ -4673,16 +4653,16 @@
         <v>58</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ36" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK36" s="9">
         <v>86</v>
       </c>
       <c r="AL36" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM36" s="9">
         <v>4.42</v>
@@ -4697,18 +4677,18 @@
         <v>15</v>
       </c>
       <c r="AQ36" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR36" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>46</v>
@@ -4747,7 +4727,7 @@
         <v>55</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V37" s="8" t="s">
         <v>49</v>
@@ -4759,7 +4739,7 @@
         <v>57</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z37" s="7">
         <v>16</v>
@@ -4783,16 +4763,16 @@
         <v>58</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ37" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK37" s="9">
         <v>2.7</v>
       </c>
       <c r="AL37" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM37" s="9">
         <v>0.15</v>
@@ -4807,18 +4787,18 @@
         <v>15</v>
       </c>
       <c r="AQ37" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR37" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>46</v>
@@ -4857,7 +4837,7 @@
         <v>55</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V38" s="8" t="s">
         <v>49</v>
@@ -4869,7 +4849,7 @@
         <v>25</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z38" s="7">
         <v>0</v>
@@ -4893,16 +4873,16 @@
         <v>58</v>
       </c>
       <c r="AI38" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ38" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK38" s="9">
         <v>87</v>
       </c>
       <c r="AL38" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM38" s="9">
         <v>2.77</v>
@@ -4917,18 +4897,18 @@
         <v>15</v>
       </c>
       <c r="AQ38" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR38" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>46</v>
@@ -4967,7 +4947,7 @@
         <v>55</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V39" s="8" t="s">
         <v>49</v>
@@ -4979,7 +4959,7 @@
         <v>25</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z39" s="7">
         <v>0</v>
@@ -5003,16 +4983,16 @@
         <v>58</v>
       </c>
       <c r="AI39" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ39" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK39" s="9">
         <v>3.35</v>
       </c>
       <c r="AL39" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM39" s="9">
         <v>0.2</v>
@@ -5027,18 +5007,18 @@
         <v>15</v>
       </c>
       <c r="AQ39" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR39" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>46</v>
@@ -5077,7 +5057,7 @@
         <v>55</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V40" s="8" t="s">
         <v>49</v>
@@ -5089,7 +5069,7 @@
         <v>57</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z40" s="7">
         <v>0</v>
@@ -5113,16 +5093,16 @@
         <v>58</v>
       </c>
       <c r="AI40" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ40" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK40" s="9">
         <v>76</v>
       </c>
       <c r="AL40" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM40" s="9">
         <v>4.5199999999999996</v>
@@ -5137,18 +5117,18 @@
         <v>15</v>
       </c>
       <c r="AQ40" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR40" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>46</v>
@@ -5187,7 +5167,7 @@
         <v>55</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V41" s="8" t="s">
         <v>49</v>
@@ -5199,7 +5179,7 @@
         <v>57</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z41" s="7">
         <v>0</v>
@@ -5223,16 +5203,16 @@
         <v>58</v>
       </c>
       <c r="AI41" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ41" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK41" s="7">
         <v>4.5</v>
       </c>
       <c r="AL41" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM41" s="7">
         <v>0.12</v>
@@ -5247,18 +5227,18 @@
         <v>15</v>
       </c>
       <c r="AQ41" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR41" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>46</v>
@@ -5297,7 +5277,7 @@
         <v>55</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V42" s="8" t="s">
         <v>49</v>
@@ -5333,16 +5313,16 @@
         <v>58</v>
       </c>
       <c r="AI42" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ42" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK42" s="9">
         <v>84</v>
       </c>
       <c r="AL42" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM42" s="9">
         <v>2.91</v>
@@ -5357,18 +5337,18 @@
         <v>15</v>
       </c>
       <c r="AQ42" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR42" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>46</v>
@@ -5407,7 +5387,7 @@
         <v>55</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V43" s="8" t="s">
         <v>49</v>
@@ -5443,16 +5423,16 @@
         <v>58</v>
       </c>
       <c r="AI43" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ43" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK43" s="9">
         <v>2.4</v>
       </c>
       <c r="AL43" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM43" s="9">
         <v>0.13</v>
@@ -5467,18 +5447,18 @@
         <v>15</v>
       </c>
       <c r="AQ43" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR43" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>46</v>
@@ -5517,7 +5497,7 @@
         <v>55</v>
       </c>
       <c r="U44" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V44" s="8" t="s">
         <v>49</v>
@@ -5544,25 +5524,25 @@
         <v>49</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG44" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH44" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI44" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ44" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK44" s="9">
         <v>87</v>
       </c>
       <c r="AL44" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM44" s="9">
         <v>2.19</v>
@@ -5577,18 +5557,18 @@
         <v>15</v>
       </c>
       <c r="AQ44" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR44" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>46</v>
@@ -5627,7 +5607,7 @@
         <v>55</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V45" s="8" t="s">
         <v>49</v>
@@ -5654,25 +5634,25 @@
         <v>49</v>
       </c>
       <c r="AF45" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG45" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH45" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI45" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ45" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK45" s="9">
         <v>1.95</v>
       </c>
       <c r="AL45" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM45" s="9">
         <v>0.1</v>
@@ -5687,18 +5667,18 @@
         <v>15</v>
       </c>
       <c r="AQ45" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR45" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>46</v>
@@ -5737,7 +5717,7 @@
         <v>55</v>
       </c>
       <c r="U46" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V46" s="8" t="s">
         <v>49</v>
@@ -5764,25 +5744,25 @@
         <v>49</v>
       </c>
       <c r="AF46" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG46" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH46" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI46" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ46" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK46" s="9">
         <v>95</v>
       </c>
       <c r="AL46" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM46" s="9">
         <v>2.6</v>
@@ -5797,18 +5777,18 @@
         <v>15</v>
       </c>
       <c r="AQ46" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR46" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>46</v>
@@ -5847,7 +5827,7 @@
         <v>55</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="V47" s="8" t="s">
         <v>49</v>
@@ -5874,25 +5854,25 @@
         <v>49</v>
       </c>
       <c r="AF47" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG47" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH47" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AI47" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ47" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK47" s="7">
         <v>1.4</v>
       </c>
       <c r="AL47" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM47" s="7">
         <v>0.03</v>
@@ -5907,18 +5887,18 @@
         <v>15</v>
       </c>
       <c r="AQ47" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR47" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>46</v>
@@ -5966,19 +5946,19 @@
         <v>57</v>
       </c>
       <c r="Y48" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z48" s="7">
         <v>16</v>
       </c>
       <c r="AA48" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB48" s="9">
         <v>0</v>
       </c>
       <c r="AC48" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD48" s="7" t="s">
         <v>58</v>
@@ -5987,25 +5967,25 @@
         <v>49</v>
       </c>
       <c r="AF48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG48" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH48" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI48" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ48" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK48" s="9">
         <v>82</v>
       </c>
       <c r="AL48" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM48" s="9">
         <v>1.43</v>
@@ -6020,21 +6000,21 @@
         <v>15</v>
       </c>
       <c r="AQ48" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR48" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AS48" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>46</v>
@@ -6082,19 +6062,19 @@
         <v>57</v>
       </c>
       <c r="Y49" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z49" s="7">
         <v>16</v>
       </c>
       <c r="AA49" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB49" s="9">
         <v>0</v>
       </c>
       <c r="AC49" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD49" s="7" t="s">
         <v>58</v>
@@ -6103,25 +6083,25 @@
         <v>49</v>
       </c>
       <c r="AF49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG49" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG49" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH49" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI49" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ49" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK49" s="9">
         <v>2.7</v>
       </c>
       <c r="AL49" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM49" s="9">
         <v>0.15</v>
@@ -6136,18 +6116,18 @@
         <v>15</v>
       </c>
       <c r="AQ49" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR49" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>46</v>
@@ -6195,19 +6175,19 @@
         <v>57</v>
       </c>
       <c r="Y50" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z50" s="7">
         <v>16</v>
       </c>
       <c r="AA50" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB50" s="9">
         <v>2.5</v>
       </c>
       <c r="AC50" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD50" s="7" t="s">
         <v>58</v>
@@ -6216,25 +6196,25 @@
         <v>49</v>
       </c>
       <c r="AF50" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG50" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG50" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH50" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI50" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ50" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK50" s="9">
         <v>77</v>
       </c>
       <c r="AL50" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM50" s="9">
         <v>1.92</v>
@@ -6249,21 +6229,21 @@
         <v>15</v>
       </c>
       <c r="AQ50" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR50" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AS50" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>46</v>
@@ -6311,19 +6291,19 @@
         <v>57</v>
       </c>
       <c r="Y51" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z51" s="7">
         <v>16</v>
       </c>
       <c r="AA51" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB51" s="9">
         <v>2.5</v>
       </c>
       <c r="AC51" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD51" s="7" t="s">
         <v>58</v>
@@ -6332,25 +6312,25 @@
         <v>49</v>
       </c>
       <c r="AF51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG51" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH51" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI51" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ51" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK51" s="9">
         <v>3.05</v>
       </c>
       <c r="AL51" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM51" s="9">
         <v>0.19</v>
@@ -6365,18 +6345,18 @@
         <v>15</v>
       </c>
       <c r="AQ51" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR51" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>46</v>
@@ -6424,19 +6404,19 @@
         <v>57</v>
       </c>
       <c r="Y52" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z52" s="7">
         <v>16</v>
       </c>
       <c r="AA52" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB52" s="9">
         <v>5</v>
       </c>
       <c r="AC52" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD52" s="7" t="s">
         <v>58</v>
@@ -6445,25 +6425,25 @@
         <v>49</v>
       </c>
       <c r="AF52" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG52" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG52" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH52" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI52" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ52" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK52" s="9">
         <v>83</v>
       </c>
       <c r="AL52" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM52" s="9">
         <v>2.65</v>
@@ -6478,21 +6458,21 @@
         <v>15</v>
       </c>
       <c r="AQ52" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR52" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AS52" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>46</v>
@@ -6540,19 +6520,19 @@
         <v>57</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z53" s="7">
         <v>16</v>
       </c>
       <c r="AA53" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB53" s="9">
         <v>5</v>
       </c>
       <c r="AC53" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD53" s="7" t="s">
         <v>58</v>
@@ -6561,25 +6541,25 @@
         <v>49</v>
       </c>
       <c r="AF53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG53" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG53" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH53" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI53" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ53" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK53" s="9">
         <v>3.02</v>
       </c>
       <c r="AL53" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM53" s="9">
         <v>0.21</v>
@@ -6594,18 +6574,18 @@
         <v>15</v>
       </c>
       <c r="AQ53" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR53" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>46</v>
@@ -6653,19 +6633,19 @@
         <v>57</v>
       </c>
       <c r="Y54" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z54" s="7">
         <v>16</v>
       </c>
       <c r="AA54" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB54" s="9">
         <v>10</v>
       </c>
       <c r="AC54" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD54" s="7" t="s">
         <v>58</v>
@@ -6674,25 +6654,25 @@
         <v>49</v>
       </c>
       <c r="AF54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG54" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG54" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH54" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI54" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ54" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK54" s="9">
         <v>78</v>
       </c>
       <c r="AL54" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM54" s="9">
         <v>2.6</v>
@@ -6707,21 +6687,21 @@
         <v>15</v>
       </c>
       <c r="AQ54" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR54" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AS54" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>46</v>
@@ -6769,19 +6749,19 @@
         <v>57</v>
       </c>
       <c r="Y55" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z55" s="7">
         <v>16</v>
       </c>
       <c r="AA55" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB55" s="9">
         <v>10</v>
       </c>
       <c r="AC55" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD55" s="7" t="s">
         <v>58</v>
@@ -6790,25 +6770,25 @@
         <v>49</v>
       </c>
       <c r="AF55" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG55" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG55" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH55" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI55" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ55" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK55" s="9">
         <v>3.42</v>
       </c>
       <c r="AL55" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM55" s="9">
         <v>0.14000000000000001</v>
@@ -6823,18 +6803,18 @@
         <v>15</v>
       </c>
       <c r="AQ55" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR55" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>46</v>
@@ -6889,19 +6869,19 @@
         <v>57</v>
       </c>
       <c r="Y56" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z56" s="14">
         <v>16</v>
       </c>
       <c r="AA56" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB56" s="14">
         <v>15</v>
       </c>
       <c r="AC56" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD56" s="14" t="s">
         <v>58</v>
@@ -6910,25 +6890,25 @@
         <v>49</v>
       </c>
       <c r="AF56" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG56" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG56" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH56" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI56" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ56" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK56" s="14">
         <v>76</v>
       </c>
       <c r="AL56" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM56" s="14">
         <v>2.25</v>
@@ -6943,21 +6923,21 @@
         <v>15</v>
       </c>
       <c r="AQ56" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR56" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AS56" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>46</v>
@@ -7012,19 +6992,19 @@
         <v>57</v>
       </c>
       <c r="Y57" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z57" s="14">
         <v>16</v>
       </c>
       <c r="AA57" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB57" s="14">
         <v>15</v>
       </c>
       <c r="AC57" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD57" s="14" t="s">
         <v>58</v>
@@ -7033,25 +7013,25 @@
         <v>49</v>
       </c>
       <c r="AF57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG57" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG57" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH57" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI57" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ57" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK57" s="14">
         <v>3.9</v>
       </c>
       <c r="AL57" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM57" s="14">
         <v>0.21</v>
@@ -7066,18 +7046,18 @@
         <v>15</v>
       </c>
       <c r="AQ57" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR57" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>46</v>
@@ -7132,19 +7112,19 @@
         <v>57</v>
       </c>
       <c r="Y58" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z58" s="14">
         <v>16</v>
       </c>
       <c r="AA58" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB58" s="14">
         <v>20</v>
       </c>
       <c r="AC58" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD58" s="14" t="s">
         <v>58</v>
@@ -7153,25 +7133,25 @@
         <v>49</v>
       </c>
       <c r="AF58" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG58" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG58" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH58" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI58" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ58" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK58" s="14">
         <v>65</v>
       </c>
       <c r="AL58" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM58" s="14">
         <v>2.72</v>
@@ -7186,21 +7166,21 @@
         <v>15</v>
       </c>
       <c r="AQ58" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR58" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AS58" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>46</v>
@@ -7255,19 +7235,19 @@
         <v>57</v>
       </c>
       <c r="Y59" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z59" s="14">
         <v>16</v>
       </c>
       <c r="AA59" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB59" s="14">
         <v>20</v>
       </c>
       <c r="AC59" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD59" s="14" t="s">
         <v>58</v>
@@ -7276,25 +7256,25 @@
         <v>49</v>
       </c>
       <c r="AF59" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG59" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG59" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH59" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI59" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ59" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK59" s="14">
         <v>5.07</v>
       </c>
       <c r="AL59" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM59" s="14">
         <v>0.15</v>
@@ -7309,18 +7289,18 @@
         <v>15</v>
       </c>
       <c r="AQ59" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR59" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>46</v>
@@ -7375,19 +7355,19 @@
         <v>57</v>
       </c>
       <c r="Y60" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z60" s="14">
         <v>16</v>
       </c>
       <c r="AA60" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB60" s="14">
         <v>25</v>
       </c>
       <c r="AC60" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD60" s="14" t="s">
         <v>58</v>
@@ -7396,25 +7376,25 @@
         <v>49</v>
       </c>
       <c r="AF60" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG60" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG60" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH60" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI60" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ60" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK60" s="14">
         <v>63</v>
       </c>
       <c r="AL60" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM60" s="14">
         <v>2.57</v>
@@ -7429,21 +7409,21 @@
         <v>15</v>
       </c>
       <c r="AQ60" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR60" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AS60" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>46</v>
@@ -7498,19 +7478,19 @@
         <v>57</v>
       </c>
       <c r="Y61" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z61" s="14">
         <v>16</v>
       </c>
       <c r="AA61" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB61" s="14">
         <v>25</v>
       </c>
       <c r="AC61" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD61" s="14" t="s">
         <v>58</v>
@@ -7519,25 +7499,25 @@
         <v>49</v>
       </c>
       <c r="AF61" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG61" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG61" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH61" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI61" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ61" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK61" s="14">
         <v>5.95</v>
       </c>
       <c r="AL61" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM61" s="14">
         <v>0.28000000000000003</v>
@@ -7552,18 +7532,18 @@
         <v>15</v>
       </c>
       <c r="AQ61" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR61" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>46</v>
@@ -7618,19 +7598,19 @@
         <v>57</v>
       </c>
       <c r="Y62" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z62" s="14">
         <v>16</v>
       </c>
       <c r="AA62" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB62" s="14">
         <v>35</v>
       </c>
       <c r="AC62" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD62" s="14" t="s">
         <v>58</v>
@@ -7639,25 +7619,25 @@
         <v>49</v>
       </c>
       <c r="AF62" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG62" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AG62" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="AH62" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI62" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ62" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK62" s="14">
         <v>0</v>
       </c>
       <c r="AL62" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM62" s="14">
         <v>0</v>
@@ -7672,21 +7652,21 @@
         <v>15</v>
       </c>
       <c r="AQ62" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR62" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AS62" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>46</v>
@@ -7741,19 +7721,19 @@
         <v>57</v>
       </c>
       <c r="Y63" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z63" s="14">
         <v>16</v>
       </c>
       <c r="AA63" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AB63" s="14">
         <v>35</v>
       </c>
       <c r="AC63" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD63" s="14" t="s">
         <v>58</v>
@@ -7762,25 +7742,25 @@
         <v>49</v>
       </c>
       <c r="AF63" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG63" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AG63" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AH63" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI63" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ63" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK63" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AL63" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM63" s="14" t="s">
         <v>49</v>
@@ -7795,18 +7775,18 @@
         <v>15</v>
       </c>
       <c r="AQ63" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR63" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>46</v>
@@ -7854,19 +7834,19 @@
         <v>57</v>
       </c>
       <c r="Y64" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z64" s="7">
         <v>16</v>
       </c>
       <c r="AA64" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB64" s="10">
         <v>0</v>
       </c>
       <c r="AC64" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD64" s="7" t="s">
         <v>58</v>
@@ -7875,25 +7855,25 @@
         <v>49</v>
       </c>
       <c r="AF64" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG64" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH64" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI64" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ64" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK64" s="10">
         <v>2.7</v>
       </c>
       <c r="AL64" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM64" s="10">
         <v>0.15</v>
@@ -7908,18 +7888,18 @@
         <v>15</v>
       </c>
       <c r="AQ64" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR64" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>46</v>
@@ -7967,19 +7947,19 @@
         <v>57</v>
       </c>
       <c r="Y65" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z65" s="7">
         <v>16</v>
       </c>
       <c r="AA65" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB65" s="10">
         <v>0</v>
       </c>
       <c r="AC65" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD65" s="7" t="s">
         <v>58</v>
@@ -7988,25 +7968,25 @@
         <v>49</v>
       </c>
       <c r="AF65" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG65" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH65" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI65" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ65" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK65" s="10">
         <v>82</v>
       </c>
       <c r="AL65" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM65" s="10">
         <v>1.43</v>
@@ -8021,21 +8001,21 @@
         <v>15</v>
       </c>
       <c r="AQ65" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR65" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS65" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>46</v>
@@ -8083,19 +8063,19 @@
         <v>57</v>
       </c>
       <c r="Y66" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z66" s="7">
         <v>16</v>
       </c>
       <c r="AA66" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB66" s="10">
         <v>1</v>
       </c>
       <c r="AC66" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD66" s="7" t="s">
         <v>58</v>
@@ -8104,25 +8084,25 @@
         <v>49</v>
       </c>
       <c r="AF66" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG66" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH66" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI66" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ66" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK66" s="10">
         <v>2.62</v>
       </c>
       <c r="AL66" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM66" s="10">
         <v>0.09</v>
@@ -8137,18 +8117,18 @@
         <v>15</v>
       </c>
       <c r="AQ66" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR66" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>46</v>
@@ -8196,19 +8176,19 @@
         <v>57</v>
       </c>
       <c r="Y67" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z67" s="7">
         <v>16</v>
       </c>
       <c r="AA67" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB67" s="10">
         <v>1</v>
       </c>
       <c r="AC67" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD67" s="7" t="s">
         <v>58</v>
@@ -8217,25 +8197,25 @@
         <v>49</v>
       </c>
       <c r="AF67" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG67" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH67" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI67" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ67" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK67" s="10">
         <v>71</v>
       </c>
       <c r="AL67" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM67" s="10">
         <v>3.77</v>
@@ -8250,21 +8230,21 @@
         <v>15</v>
       </c>
       <c r="AQ67" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR67" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS67" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>46</v>
@@ -8312,19 +8292,19 @@
         <v>57</v>
       </c>
       <c r="Y68" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z68" s="7">
         <v>16</v>
       </c>
       <c r="AA68" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB68" s="10">
         <v>5</v>
       </c>
       <c r="AC68" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD68" s="7" t="s">
         <v>58</v>
@@ -8333,25 +8313,25 @@
         <v>49</v>
       </c>
       <c r="AF68" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG68" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH68" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI68" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ68" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK68" s="10">
         <v>3.02</v>
       </c>
       <c r="AL68" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM68" s="10">
         <v>0.21</v>
@@ -8366,18 +8346,18 @@
         <v>15</v>
       </c>
       <c r="AQ68" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR68" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>46</v>
@@ -8425,19 +8405,19 @@
         <v>57</v>
       </c>
       <c r="Y69" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z69" s="7">
         <v>16</v>
       </c>
       <c r="AA69" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB69" s="10">
         <v>5</v>
       </c>
       <c r="AC69" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD69" s="7" t="s">
         <v>58</v>
@@ -8446,25 +8426,25 @@
         <v>49</v>
       </c>
       <c r="AF69" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG69" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH69" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI69" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ69" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK69" s="10">
         <v>72</v>
       </c>
       <c r="AL69" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM69" s="10">
         <v>4.24</v>
@@ -8479,21 +8459,21 @@
         <v>15</v>
       </c>
       <c r="AQ69" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR69" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS69" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>46</v>
@@ -8541,19 +8521,19 @@
         <v>57</v>
       </c>
       <c r="Y70" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z70" s="7">
         <v>16</v>
       </c>
       <c r="AA70" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB70" s="10">
         <v>10</v>
       </c>
       <c r="AC70" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD70" s="7" t="s">
         <v>58</v>
@@ -8562,25 +8542,25 @@
         <v>49</v>
       </c>
       <c r="AF70" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG70" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH70" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI70" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ70" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK70" s="10">
         <v>3.22</v>
       </c>
       <c r="AL70" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM70" s="10">
         <v>0.25</v>
@@ -8595,18 +8575,18 @@
         <v>15</v>
       </c>
       <c r="AQ70" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR70" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>46</v>
@@ -8654,19 +8634,19 @@
         <v>57</v>
       </c>
       <c r="Y71" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z71" s="7">
         <v>16</v>
       </c>
       <c r="AA71" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB71" s="10">
         <v>10</v>
       </c>
       <c r="AC71" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD71" s="7" t="s">
         <v>58</v>
@@ -8675,25 +8655,25 @@
         <v>49</v>
       </c>
       <c r="AF71" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG71" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH71" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI71" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ71" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK71" s="10">
         <v>72</v>
       </c>
       <c r="AL71" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM71" s="10">
         <v>2.48</v>
@@ -8708,21 +8688,21 @@
         <v>15</v>
       </c>
       <c r="AQ71" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR71" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS71" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>46</v>
@@ -8770,19 +8750,19 @@
         <v>57</v>
       </c>
       <c r="Y72" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z72" s="7">
         <v>16</v>
       </c>
       <c r="AA72" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB72" s="10">
         <v>25</v>
       </c>
       <c r="AC72" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD72" s="7" t="s">
         <v>58</v>
@@ -8791,25 +8771,25 @@
         <v>49</v>
       </c>
       <c r="AF72" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG72" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH72" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI72" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ72" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK72" s="10">
         <v>3.1</v>
       </c>
       <c r="AL72" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM72" s="10">
         <v>0.31</v>
@@ -8824,18 +8804,18 @@
         <v>15</v>
       </c>
       <c r="AQ72" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR72" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>46</v>
@@ -8883,19 +8863,19 @@
         <v>57</v>
       </c>
       <c r="Y73" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z73" s="7">
         <v>16</v>
       </c>
       <c r="AA73" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB73" s="10">
         <v>25</v>
       </c>
       <c r="AC73" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD73" s="7" t="s">
         <v>58</v>
@@ -8904,25 +8884,25 @@
         <v>49</v>
       </c>
       <c r="AF73" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG73" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH73" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI73" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ73" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK73" s="10">
         <v>72</v>
       </c>
       <c r="AL73" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM73" s="10">
         <v>2.02</v>
@@ -8937,21 +8917,21 @@
         <v>15</v>
       </c>
       <c r="AQ73" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR73" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS73" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>46</v>
@@ -8999,19 +8979,19 @@
         <v>57</v>
       </c>
       <c r="Y74" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z74" s="7">
         <v>16</v>
       </c>
       <c r="AA74" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB74" s="10">
         <v>50</v>
       </c>
       <c r="AC74" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD74" s="7" t="s">
         <v>58</v>
@@ -9020,25 +9000,25 @@
         <v>49</v>
       </c>
       <c r="AF74" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG74" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH74" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI74" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ74" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK74" s="7">
         <v>2.7</v>
       </c>
       <c r="AL74" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM74" s="7">
         <v>0.2</v>
@@ -9053,18 +9033,18 @@
         <v>15</v>
       </c>
       <c r="AQ74" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR74" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>46</v>
@@ -9112,19 +9092,19 @@
         <v>57</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z75" s="7">
         <v>16</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB75" s="10">
         <v>50</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD75" s="7" t="s">
         <v>58</v>
@@ -9133,25 +9113,25 @@
         <v>49</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG75" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH75" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI75" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ75" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK75" s="10">
         <v>70</v>
       </c>
       <c r="AL75" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM75" s="10">
         <v>6.23</v>
@@ -9166,21 +9146,21 @@
         <v>15</v>
       </c>
       <c r="AQ75" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR75" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS75" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>46</v>
@@ -9228,19 +9208,19 @@
         <v>57</v>
       </c>
       <c r="Y76" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z76" s="7">
         <v>16</v>
       </c>
       <c r="AA76" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB76" s="10">
         <v>75</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD76" s="7" t="s">
         <v>58</v>
@@ -9249,25 +9229,25 @@
         <v>49</v>
       </c>
       <c r="AF76" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG76" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH76" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI76" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ76" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK76" s="7">
         <v>3.27</v>
       </c>
       <c r="AL76" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM76" s="7">
         <v>0.28000000000000003</v>
@@ -9282,18 +9262,18 @@
         <v>15</v>
       </c>
       <c r="AQ76" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR76" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>46</v>
@@ -9341,19 +9321,19 @@
         <v>57</v>
       </c>
       <c r="Y77" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z77" s="7">
         <v>16</v>
       </c>
       <c r="AA77" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB77" s="10">
         <v>75</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD77" s="7" t="s">
         <v>58</v>
@@ -9362,25 +9342,25 @@
         <v>49</v>
       </c>
       <c r="AF77" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG77" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH77" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI77" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ77" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK77" s="10">
         <v>67</v>
       </c>
       <c r="AL77" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM77" s="10">
         <v>3.07</v>
@@ -9395,21 +9375,21 @@
         <v>15</v>
       </c>
       <c r="AQ77" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR77" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS77" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:45" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>46</v>
@@ -9457,19 +9437,19 @@
         <v>57</v>
       </c>
       <c r="Y78" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z78" s="7">
         <v>16</v>
       </c>
       <c r="AA78" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB78" s="10">
         <v>100</v>
       </c>
       <c r="AC78" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD78" s="7" t="s">
         <v>58</v>
@@ -9478,25 +9458,25 @@
         <v>49</v>
       </c>
       <c r="AF78" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG78" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH78" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI78" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ78" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK78" s="7">
         <v>3.8</v>
       </c>
       <c r="AL78" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM78" s="7">
         <v>0.24</v>
@@ -9511,18 +9491,18 @@
         <v>15</v>
       </c>
       <c r="AQ78" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR78" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>46</v>
@@ -9570,19 +9550,19 @@
         <v>57</v>
       </c>
       <c r="Y79" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z79" s="7">
         <v>16</v>
       </c>
       <c r="AA79" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB79" s="10">
         <v>100</v>
       </c>
       <c r="AC79" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD79" s="7" t="s">
         <v>58</v>
@@ -9591,25 +9571,25 @@
         <v>49</v>
       </c>
       <c r="AF79" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG79" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH79" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI79" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ79" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK79" s="10">
         <v>57</v>
       </c>
       <c r="AL79" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM79" s="10">
         <v>3.27</v>
@@ -9624,21 +9604,21 @@
         <v>15</v>
       </c>
       <c r="AQ79" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR79" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS79" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>46</v>
@@ -9693,19 +9673,19 @@
         <v>57</v>
       </c>
       <c r="Y80" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z80" s="14">
         <v>16</v>
       </c>
       <c r="AA80" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB80" s="14">
         <v>150</v>
       </c>
       <c r="AC80" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD80" s="14" t="s">
         <v>58</v>
@@ -9714,25 +9694,25 @@
         <v>49</v>
       </c>
       <c r="AF80" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG80" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH80" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI80" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ80" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK80" s="14">
         <v>3.97</v>
       </c>
       <c r="AL80" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM80" s="14">
         <v>0.1</v>
@@ -9747,19 +9727,19 @@
         <v>15</v>
       </c>
       <c r="AQ80" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR80" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS80" s="14"/>
     </row>
     <row r="81" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>46</v>
@@ -9814,19 +9794,19 @@
         <v>57</v>
       </c>
       <c r="Y81" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z81" s="14">
         <v>16</v>
       </c>
       <c r="AA81" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB81" s="14">
         <v>150</v>
       </c>
       <c r="AC81" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD81" s="14" t="s">
         <v>58</v>
@@ -9835,25 +9815,25 @@
         <v>49</v>
       </c>
       <c r="AF81" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG81" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH81" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI81" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ81" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK81" s="14">
         <v>54</v>
       </c>
       <c r="AL81" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM81" s="14">
         <v>1.6</v>
@@ -9868,21 +9848,21 @@
         <v>15</v>
       </c>
       <c r="AQ81" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR81" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS81" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>46</v>
@@ -9937,19 +9917,19 @@
         <v>57</v>
       </c>
       <c r="Y82" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z82" s="14">
         <v>16</v>
       </c>
       <c r="AA82" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB82" s="14">
         <v>200</v>
       </c>
       <c r="AC82" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD82" s="14" t="s">
         <v>58</v>
@@ -9958,25 +9938,25 @@
         <v>49</v>
       </c>
       <c r="AF82" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG82" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH82" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI82" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ82" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK82" s="14">
         <v>4.4000000000000004</v>
       </c>
       <c r="AL82" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM82" s="14">
         <v>0.27</v>
@@ -9991,19 +9971,19 @@
         <v>15</v>
       </c>
       <c r="AQ82" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR82" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS82" s="14"/>
     </row>
     <row r="83" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>46</v>
@@ -10058,19 +10038,19 @@
         <v>57</v>
       </c>
       <c r="Y83" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z83" s="14">
         <v>16</v>
       </c>
       <c r="AA83" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB83" s="14">
         <v>200</v>
       </c>
       <c r="AC83" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD83" s="14" t="s">
         <v>58</v>
@@ -10079,25 +10059,25 @@
         <v>49</v>
       </c>
       <c r="AF83" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG83" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH83" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI83" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ83" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK83" s="14">
         <v>42</v>
       </c>
       <c r="AL83" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM83" s="14">
         <v>2.88</v>
@@ -10112,21 +10092,21 @@
         <v>15</v>
       </c>
       <c r="AQ83" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR83" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS83" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>46</v>
@@ -10181,19 +10161,19 @@
         <v>57</v>
       </c>
       <c r="Y84" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z84" s="14">
         <v>16</v>
       </c>
       <c r="AA84" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB84" s="14">
         <v>300</v>
       </c>
       <c r="AC84" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD84" s="14" t="s">
         <v>58</v>
@@ -10202,25 +10182,25 @@
         <v>49</v>
       </c>
       <c r="AF84" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG84" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH84" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI84" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ84" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK84" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AL84" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM84" s="14" t="s">
         <v>49</v>
@@ -10235,19 +10215,19 @@
         <v>15</v>
       </c>
       <c r="AQ84" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR84" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS84" s="14"/>
     </row>
     <row r="85" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>46</v>
@@ -10302,19 +10282,19 @@
         <v>57</v>
       </c>
       <c r="Y85" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z85" s="14">
         <v>16</v>
       </c>
       <c r="AA85" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB85" s="14">
         <v>300</v>
       </c>
       <c r="AC85" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD85" s="14" t="s">
         <v>58</v>
@@ -10323,25 +10303,25 @@
         <v>49</v>
       </c>
       <c r="AF85" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG85" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH85" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI85" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ85" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK85" s="14">
         <v>0</v>
       </c>
       <c r="AL85" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM85" s="14" t="s">
         <v>49</v>
@@ -10356,21 +10336,21 @@
         <v>15</v>
       </c>
       <c r="AQ85" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR85" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS85" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>46</v>
@@ -10425,19 +10405,19 @@
         <v>57</v>
       </c>
       <c r="Y86" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z86" s="14">
         <v>16</v>
       </c>
       <c r="AA86" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB86" s="14">
         <v>400</v>
       </c>
       <c r="AC86" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD86" s="14" t="s">
         <v>58</v>
@@ -10446,25 +10426,25 @@
         <v>49</v>
       </c>
       <c r="AF86" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG86" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH86" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI86" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ86" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK86" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AL86" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM86" s="14" t="s">
         <v>49</v>
@@ -10479,19 +10459,19 @@
         <v>15</v>
       </c>
       <c r="AQ86" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR86" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS86" s="14"/>
     </row>
     <row r="87" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>46</v>
@@ -10546,19 +10526,19 @@
         <v>57</v>
       </c>
       <c r="Y87" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z87" s="14">
         <v>16</v>
       </c>
       <c r="AA87" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB87" s="14">
         <v>400</v>
       </c>
       <c r="AC87" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD87" s="14" t="s">
         <v>58</v>
@@ -10567,25 +10547,25 @@
         <v>49</v>
       </c>
       <c r="AF87" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG87" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH87" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI87" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ87" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK87" s="14">
         <v>0</v>
       </c>
       <c r="AL87" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM87" s="14" t="s">
         <v>49</v>
@@ -10600,21 +10580,21 @@
         <v>15</v>
       </c>
       <c r="AQ87" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR87" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS87" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>46</v>
@@ -10669,19 +10649,19 @@
         <v>57</v>
       </c>
       <c r="Y88" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z88" s="14">
         <v>16</v>
       </c>
       <c r="AA88" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB88" s="14">
         <v>600</v>
       </c>
       <c r="AC88" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD88" s="14" t="s">
         <v>58</v>
@@ -10690,25 +10670,25 @@
         <v>49</v>
       </c>
       <c r="AF88" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG88" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH88" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI88" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ88" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK88" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AL88" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM88" s="14" t="s">
         <v>49</v>
@@ -10723,19 +10703,19 @@
         <v>15</v>
       </c>
       <c r="AQ88" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR88" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS88" s="14"/>
     </row>
     <row r="89" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>46</v>
@@ -10790,19 +10770,19 @@
         <v>57</v>
       </c>
       <c r="Y89" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z89" s="14">
         <v>16</v>
       </c>
       <c r="AA89" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB89" s="14">
         <v>600</v>
       </c>
       <c r="AC89" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD89" s="14" t="s">
         <v>58</v>
@@ -10811,25 +10791,25 @@
         <v>49</v>
       </c>
       <c r="AF89" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG89" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH89" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI89" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ89" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK89" s="14">
         <v>0</v>
       </c>
       <c r="AL89" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM89" s="14" t="s">
         <v>49</v>
@@ -10844,21 +10824,21 @@
         <v>15</v>
       </c>
       <c r="AQ89" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR89" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS89" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>46</v>
@@ -10913,19 +10893,19 @@
         <v>57</v>
       </c>
       <c r="Y90" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z90" s="14">
         <v>16</v>
       </c>
       <c r="AA90" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB90" s="14">
         <v>800</v>
       </c>
       <c r="AC90" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD90" s="14" t="s">
         <v>58</v>
@@ -10934,25 +10914,25 @@
         <v>49</v>
       </c>
       <c r="AF90" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG90" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH90" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI90" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ90" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK90" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AL90" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM90" s="14" t="s">
         <v>49</v>
@@ -10967,19 +10947,19 @@
         <v>15</v>
       </c>
       <c r="AQ90" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR90" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS90" s="14"/>
     </row>
     <row r="91" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>46</v>
@@ -11034,19 +11014,19 @@
         <v>57</v>
       </c>
       <c r="Y91" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z91" s="14">
         <v>16</v>
       </c>
       <c r="AA91" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB91" s="14">
         <v>800</v>
       </c>
       <c r="AC91" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD91" s="14" t="s">
         <v>58</v>
@@ -11055,25 +11035,25 @@
         <v>49</v>
       </c>
       <c r="AF91" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG91" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH91" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI91" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ91" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK91" s="14">
         <v>0</v>
       </c>
       <c r="AL91" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM91" s="14" t="s">
         <v>49</v>
@@ -11088,21 +11068,21 @@
         <v>15</v>
       </c>
       <c r="AQ91" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR91" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS91" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>46</v>
@@ -11157,19 +11137,19 @@
         <v>57</v>
       </c>
       <c r="Y92" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z92" s="14">
         <v>16</v>
       </c>
       <c r="AA92" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB92" s="14">
         <v>1000</v>
       </c>
       <c r="AC92" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD92" s="14" t="s">
         <v>58</v>
@@ -11178,25 +11158,25 @@
         <v>49</v>
       </c>
       <c r="AF92" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG92" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH92" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI92" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ92" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK92" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AL92" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM92" s="14" t="s">
         <v>49</v>
@@ -11211,19 +11191,19 @@
         <v>15</v>
       </c>
       <c r="AQ92" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR92" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS92" s="14"/>
     </row>
     <row r="93" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>46</v>
@@ -11278,19 +11258,19 @@
         <v>57</v>
       </c>
       <c r="Y93" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z93" s="14">
         <v>16</v>
       </c>
       <c r="AA93" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB93" s="14">
         <v>1000</v>
       </c>
       <c r="AC93" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD93" s="14" t="s">
         <v>58</v>
@@ -11299,25 +11279,25 @@
         <v>49</v>
       </c>
       <c r="AF93" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG93" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH93" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI93" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ93" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK93" s="14">
         <v>0</v>
       </c>
       <c r="AL93" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM93" s="14" t="s">
         <v>49</v>
@@ -11332,21 +11312,21 @@
         <v>15</v>
       </c>
       <c r="AQ93" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR93" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS93" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>46</v>
@@ -11401,19 +11381,19 @@
         <v>57</v>
       </c>
       <c r="Y94" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z94" s="14">
         <v>16</v>
       </c>
       <c r="AA94" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB94" s="14">
         <v>1500</v>
       </c>
       <c r="AC94" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD94" s="14" t="s">
         <v>58</v>
@@ -11422,25 +11402,25 @@
         <v>49</v>
       </c>
       <c r="AF94" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG94" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH94" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI94" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ94" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AK94" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AL94" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM94" s="14" t="s">
         <v>49</v>
@@ -11455,19 +11435,19 @@
         <v>15</v>
       </c>
       <c r="AQ94" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR94" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS94" s="14"/>
     </row>
     <row r="95" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>46</v>
@@ -11522,19 +11502,19 @@
         <v>57</v>
       </c>
       <c r="Y95" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Z95" s="14">
         <v>16</v>
       </c>
       <c r="AA95" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB95" s="14">
         <v>1500</v>
       </c>
       <c r="AC95" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AD95" s="14" t="s">
         <v>58</v>
@@ -11543,25 +11523,25 @@
         <v>49</v>
       </c>
       <c r="AF95" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AG95" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AH95" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI95" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AJ95" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK95" s="14">
         <v>0</v>
       </c>
       <c r="AL95" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AM95" s="14" t="s">
         <v>49</v>
@@ -11576,13 +11556,13 @@
         <v>15</v>
       </c>
       <c r="AQ95" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AR95" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AS95" s="14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.2">
